--- a/outputs/2023/status_rel-202302.xlsx
+++ b/outputs/2023/status_rel-202302.xlsx
@@ -391,16 +391,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.36</v>
+        <v>21.45</v>
       </c>
       <c r="C2">
-        <v>21.04</v>
+        <v>16.26</v>
       </c>
       <c r="D2">
-        <v>20.08</v>
+        <v>14.62</v>
       </c>
       <c r="E2">
-        <v>18.17</v>
+        <v>11.34</v>
       </c>
     </row>
   </sheetData>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -468,151 +468,151 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="E2">
         <v>7.89</v>
       </c>
       <c r="F2">
-        <v>13.16</v>
+        <v>34.21</v>
       </c>
       <c r="G2">
-        <v>78.95</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.33</v>
+        <v>18.18</v>
       </c>
       <c r="E3">
-        <v>8.33</v>
+        <v>9.09</v>
       </c>
       <c r="F3">
-        <v>33.33</v>
+        <v>9.09</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>21.74</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IN-UP</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>4.17</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>29.33</v>
+        <v>33.33</v>
       </c>
       <c r="G5">
-        <v>46.67</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>18.18</v>
+        <v>13.33</v>
       </c>
       <c r="E6">
-        <v>18.18</v>
+        <v>18.67</v>
       </c>
       <c r="F6">
-        <v>18.18</v>
+        <v>33.33</v>
       </c>
       <c r="G6">
-        <v>45.45</v>
+        <v>29.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>17.39</v>
+        <v>18.18</v>
       </c>
       <c r="E7">
-        <v>21.74</v>
+        <v>27.27</v>
       </c>
       <c r="F7">
-        <v>8.699999999999999</v>
+        <v>22.73</v>
       </c>
       <c r="G7">
-        <v>34.78</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="8">
@@ -630,124 +630,124 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
         <v>12.5</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
       </c>
       <c r="F8">
         <v>31.25</v>
       </c>
       <c r="G8">
-        <v>31.25</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>27.27</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>6.06</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>21.21</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>13.64</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>18.18</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>40.91</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>27.27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>27.27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>31.82</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>22.73</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>36.36</v>
+      </c>
+      <c r="F12">
+        <v>18.18</v>
+      </c>
+      <c r="G12">
         <v>9.09</v>
-      </c>
-      <c r="E12">
-        <v>31.82</v>
-      </c>
-      <c r="F12">
-        <v>40.91</v>
-      </c>
-      <c r="G12">
-        <v>13.64</v>
       </c>
     </row>
     <row r="13">
@@ -765,259 +765,259 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
         <v>20</v>
       </c>
-      <c r="E13">
-        <v>26.67</v>
-      </c>
-      <c r="F13">
-        <v>33.33</v>
-      </c>
       <c r="G13">
-        <v>13.33</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>36.54</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>21.15</v>
       </c>
       <c r="F14">
-        <v>62.5</v>
+        <v>17.31</v>
       </c>
       <c r="G14">
-        <v>12.5</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IN-TS</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Telangana</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>27.27</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>30.3</v>
+        <v>50</v>
       </c>
       <c r="F15">
-        <v>24.24</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>12.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>15.38</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>36.54</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>28.85</v>
+        <v>50</v>
       </c>
       <c r="G16">
-        <v>9.619999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>27.27</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>54.55</v>
+        <v>25</v>
       </c>
       <c r="G17">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>13.64</v>
+        <v>27.27</v>
       </c>
       <c r="E18">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
       <c r="F18">
-        <v>40.91</v>
+        <v>15.15</v>
       </c>
       <c r="G18">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.18</v>
+        <v>13.64</v>
       </c>
       <c r="E19">
-        <v>36.36</v>
+        <v>54.55</v>
       </c>
       <c r="F19">
-        <v>36.36</v>
+        <v>13.64</v>
       </c>
       <c r="G19">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>21.21</v>
+        <v>36.36</v>
       </c>
       <c r="E20">
-        <v>24.24</v>
+        <v>45.45</v>
       </c>
       <c r="F20">
-        <v>18.18</v>
+        <v>9.09</v>
       </c>
       <c r="G20">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>33.33</v>
+        <v>39.13</v>
       </c>
       <c r="E21">
-        <v>33.33</v>
+        <v>4.35</v>
       </c>
       <c r="F21">
-        <v>8.33</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G21">
-        <v>8.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IN-WB</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>West Bengal</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>34.78</v>
+        <v>33.33</v>
       </c>
       <c r="E22">
-        <v>26.09</v>
+        <v>16.67</v>
       </c>
       <c r="F22">
-        <v>8.699999999999999</v>
+        <v>8.33</v>
       </c>
       <c r="G22">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>25.93</v>
+        <v>51.85</v>
       </c>
       <c r="E23">
-        <v>40.74</v>
+        <v>14.81</v>
       </c>
       <c r="F23">
-        <v>14.81</v>
+        <v>3.7</v>
       </c>
       <c r="G23">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>24.24</v>
+        <v>18.18</v>
       </c>
       <c r="E24">
-        <v>33.33</v>
+        <v>3.03</v>
       </c>
       <c r="F24">
-        <v>21.21</v>
+        <v>3.03</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1077,25 +1077,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>57.58</v>
+        <v>36.36</v>
       </c>
       <c r="E25">
-        <v>9.09</v>
+        <v>21.21</v>
       </c>
       <c r="F25">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>30.56</v>
+        <v>16.67</v>
       </c>
       <c r="E26">
-        <v>19.44</v>
+        <v>11.11</v>
       </c>
       <c r="F26">
-        <v>5.56</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>26.67</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>6.67</v>
+        <v>3.33</v>
       </c>
       <c r="F27">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>37.84</v>
+        <v>10.81</v>
       </c>
       <c r="E28">
-        <v>5.41</v>
+        <v>2.7</v>
       </c>
       <c r="F28">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>53.85</v>
+        <v>23.08</v>
       </c>
       <c r="E31">
-        <v>15.38</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1278,42 +1278,15 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>15.38</v>
+        <v>7.69</v>
       </c>
       <c r="E32">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>IN-LA</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Ladakh</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>50</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
         <v>0</v>
       </c>
     </row>
@@ -1372,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="D2">
-        <v>6.67</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E2">
-        <v>15.56</v>
+        <v>28.89</v>
       </c>
       <c r="F2">
-        <v>77.78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1394,16 +1367,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>16.96</v>
+        <v>23.21</v>
       </c>
       <c r="D3">
-        <v>23.21</v>
+        <v>18.75</v>
       </c>
       <c r="E3">
-        <v>23.21</v>
+        <v>15.18</v>
       </c>
       <c r="F3">
-        <v>23.21</v>
+        <v>16.07</v>
       </c>
     </row>
   </sheetData>
